--- a/RedundancyBenchmarkSQL/Output/benchmark_without_indexes_strict_filtered.xlsx
+++ b/RedundancyBenchmarkSQL/Output/benchmark_without_indexes_strict_filtered.xlsx
@@ -318,7 +318,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="0">
         <v>4</v>
@@ -388,7 +388,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="0">
         <v>2</v>
@@ -423,7 +423,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="0">
         <v>1</v>
